--- a/tmp/TABLAS.xlsx
+++ b/tmp/TABLAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="275">
   <si>
     <t>PITS</t>
   </si>
@@ -765,9 +765,6 @@
     <t>PERSONAL</t>
   </si>
   <si>
-    <t>T_TIPOPERSONAL</t>
-  </si>
-  <si>
     <t>ORDENES</t>
   </si>
   <si>
@@ -796,6 +793,54 @@
   </si>
   <si>
     <t>TABLA ORIGEN</t>
+  </si>
+  <si>
+    <t>T_COTIZACIONES</t>
+  </si>
+  <si>
+    <t>Crear un emepleado por defecto para que a esta emplepado asociale la categoria no definida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se registran </t>
+  </si>
+  <si>
+    <t>LIQ_ID</t>
+  </si>
+  <si>
+    <t>LIQ_COD_TIP_DOC</t>
+  </si>
+  <si>
+    <t>LIQ_COD_EST</t>
+  </si>
+  <si>
+    <t>LIQ_SERIE_DOC</t>
+  </si>
+  <si>
+    <t>LIQ_NUM_DOC</t>
+  </si>
+  <si>
+    <t>LIQ_FEC_LIQ</t>
+  </si>
+  <si>
+    <t>LIQ_CNT_ENT</t>
+  </si>
+  <si>
+    <t>LIQ_CNT_MOT</t>
+  </si>
+  <si>
+    <t>LIQ_CNT_PEN</t>
+  </si>
+  <si>
+    <t>LIQ_CNT_NO_TRAB</t>
+  </si>
+  <si>
+    <t>T_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>No se llena</t>
+  </si>
+  <si>
+    <t>Carga Inicial</t>
   </si>
 </sst>
 </file>
@@ -843,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -903,11 +948,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -917,6 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J289"/>
+  <dimension ref="A4:J306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165:C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1247,7 +1302,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -1263,7 +1318,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -1273,7 +1328,7 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -1283,7 +1338,7 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -1293,7 +1348,7 @@
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="1" t="s">
@@ -1302,7 +1357,7 @@
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="1" t="s">
@@ -1311,7 +1366,7 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="1" t="s">
@@ -1320,7 +1375,7 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
@@ -1329,7 +1384,7 @@
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
@@ -1338,7 +1393,7 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="1" t="s">
@@ -1347,9 +1402,9 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1357,39 +1412,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="1:6">
       <c r="B19" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:6">
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="1:6">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:6">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
         <v>36</v>
@@ -1398,7 +1458,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="8" t="s">
         <v>37</v>
@@ -1407,19 +1470,19 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6">
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" t="s">
         <v>257</v>
       </c>
-      <c r="F26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -1428,34 +1491,34 @@
         <v>224</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="1:6">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="1:6">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -1510,7 +1573,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -1681,7 +1744,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1689,13 +1752,13 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="B72" s="10"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="B73" s="11"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="1" t="s">
         <v>66</v>
       </c>
@@ -1792,7 +1855,9 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="B90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C90" s="3" t="s">
         <v>6</v>
       </c>
@@ -2201,6 +2266,9 @@
       <c r="C141" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D141" s="13" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="142" spans="1:9">
       <c r="B142" s="1" t="s">
@@ -2227,7 +2295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="B145" s="1" t="s">
         <v>167</v>
       </c>
@@ -2235,7 +2303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="B146" s="1" t="s">
         <v>166</v>
       </c>
@@ -2243,7 +2311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="B147" s="1" t="s">
         <v>168</v>
       </c>
@@ -2251,7 +2319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="B148" s="1" t="s">
         <v>169</v>
       </c>
@@ -2259,7 +2327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="B149" s="1" t="s">
         <v>170</v>
       </c>
@@ -2267,7 +2335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="B150" s="1" t="s">
         <v>27</v>
       </c>
@@ -2275,7 +2343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="B151" s="1" t="s">
         <v>27</v>
       </c>
@@ -2283,7 +2351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="B152" s="1" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -2299,23 +2367,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="B156" s="3" t="s">
-        <v>249</v>
-      </c>
+    <row r="156" spans="1:4">
+      <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="B157" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="B158" s="1" t="s">
         <v>164</v>
       </c>
@@ -2323,7 +2392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2332,13 +2401,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="1:3">
       <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="1:3">
       <c r="B162" s="1" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="1:3">
       <c r="B163" s="1" t="s">
         <v>27</v>
       </c>
@@ -2362,466 +2431,493 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="165" spans="1:3">
+      <c r="B165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="B166" s="3" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10">
-      <c r="B167" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C167" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="2:10">
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="1:3">
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="B172" s="1"/>
-      <c r="C172" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10">
+      <c r="C172" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F174" t="s">
-        <v>191</v>
-      </c>
-      <c r="I174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G175" t="s">
-        <v>192</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="B176" s="1"/>
-      <c r="C176" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G176" t="s">
-        <v>193</v>
-      </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
-      <c r="J176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10">
+      <c r="C176" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
       <c r="B177" s="1"/>
-      <c r="C177" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G177" t="s">
-        <v>194</v>
-      </c>
-      <c r="I177">
-        <v>3</v>
-      </c>
-      <c r="J177" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10">
+      <c r="C177" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G178" t="s">
-        <v>195</v>
-      </c>
-      <c r="I178">
-        <v>4</v>
-      </c>
-      <c r="J178" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G179" t="s">
-        <v>196</v>
-      </c>
-      <c r="I179">
-        <v>5</v>
-      </c>
-      <c r="J179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
       <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G180" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="B181" s="1"/>
-      <c r="C181" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G181" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10">
-      <c r="B182" s="1"/>
-      <c r="C182" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10">
-      <c r="B183" s="1"/>
-      <c r="C183" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F184" t="s">
-        <v>206</v>
-      </c>
-      <c r="I184" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10">
-      <c r="B185" s="1"/>
-      <c r="C185" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G185" t="s">
-        <v>207</v>
-      </c>
-      <c r="I185" t="s">
-        <v>210</v>
-      </c>
-      <c r="J185" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
-      <c r="I186" t="s">
-        <v>211</v>
-      </c>
-      <c r="J186" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
       <c r="B187" s="1"/>
-      <c r="C187" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="188" spans="2:10">
+      <c r="C187" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3">
       <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3">
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F189" t="s">
-        <v>214</v>
-      </c>
-      <c r="G189" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F190" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
       <c r="B191" s="1"/>
-      <c r="C191" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F191" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10">
+      <c r="C191" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F192" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10">
       <c r="B193" s="1"/>
-      <c r="C193" s="2" t="s">
-        <v>132</v>
+      <c r="C193" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7">
-      <c r="B194" s="1"/>
-      <c r="C194" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7">
+        <v>191</v>
+      </c>
+      <c r="I193" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G194" t="s">
+        <v>192</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10">
       <c r="B195" s="1"/>
-      <c r="C195" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G195" s="7"/>
-    </row>
-    <row r="196" spans="2:7">
+      <c r="C195" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G195" t="s">
+        <v>193</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10">
       <c r="B196" s="1"/>
-      <c r="C196" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F196" s="7">
-        <v>0</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7">
-      <c r="F197" s="7">
-        <v>1</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7">
-      <c r="F198" s="7">
-        <v>2</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="B201" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7">
-      <c r="B202" s="3"/>
-      <c r="C202" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7">
+      <c r="C196" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G196" t="s">
+        <v>194</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G197" t="s">
+        <v>195</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+      <c r="J197" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G198" t="s">
+        <v>196</v>
+      </c>
+      <c r="I198">
+        <v>5</v>
+      </c>
+      <c r="J198" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10">
+      <c r="B200" s="1"/>
+      <c r="C200" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10">
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
+        <v>123</v>
+      </c>
+      <c r="F203" t="s">
+        <v>206</v>
+      </c>
+      <c r="I203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10">
       <c r="B204" s="1"/>
-      <c r="C204" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7">
+      <c r="C204" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G204" t="s">
+        <v>207</v>
+      </c>
+      <c r="I204" t="s">
+        <v>210</v>
+      </c>
+      <c r="J204" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10">
       <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7">
+        <v>125</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G205" t="s">
+        <v>208</v>
+      </c>
+      <c r="I205" t="s">
+        <v>211</v>
+      </c>
+      <c r="J205" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10">
       <c r="B206" s="1"/>
-      <c r="C206" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7">
+      <c r="C206" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10">
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10">
       <c r="B208" s="1"/>
       <c r="C208" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
+        <v>128</v>
+      </c>
+      <c r="F208" t="s">
+        <v>214</v>
+      </c>
+      <c r="G208" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3">
+        <v>129</v>
+      </c>
+      <c r="F209" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F210" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F211" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="1"/>
+      <c r="C212" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F212" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="218" spans="2:3">
-      <c r="B218" s="3" t="s">
+      <c r="F215" s="7">
         <v>0</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="G215" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="F216" s="7">
+        <v>1</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="F217" s="7">
+        <v>2</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3">
-      <c r="B220" s="1"/>
-      <c r="C220" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="1"/>
-      <c r="C221" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3">
+    <row r="221" spans="2:7">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
       <c r="B222" s="1"/>
       <c r="C222" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
       <c r="B223" s="1"/>
       <c r="C223" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
       <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="227" spans="2:3">
@@ -2852,255 +2948,337 @@
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="1"/>
+      <c r="C247" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="3" t="s">
+    <row r="254" spans="2:3">
+      <c r="B254" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="1"/>
-      <c r="C253" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="1"/>
-      <c r="C254" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="1"/>
-      <c r="C255" s="1" t="s">
-        <v>148</v>
+      <c r="B255" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="1"/>
       <c r="C257" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="1"/>
       <c r="C258" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="1"/>
       <c r="C259" s="1" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="3" t="s">
+    <row r="268" spans="2:3">
+      <c r="B268" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="1"/>
-      <c r="C266" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="1"/>
-      <c r="C267" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="1"/>
-      <c r="C268" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="1"/>
-      <c r="C269" s="1" t="s">
-        <v>153</v>
+      <c r="B269" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="1"/>
       <c r="C270" s="1" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="1"/>
       <c r="C271" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
       <c r="B274" s="1"/>
       <c r="C274" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="2:3">
-      <c r="B280" s="3" t="s">
+    <row r="281" spans="2:4">
+      <c r="B281" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C281" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="281" spans="2:3">
-      <c r="B281" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3">
-      <c r="B282" s="1"/>
-      <c r="C282" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3">
+      <c r="D281" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
       <c r="B283" s="1"/>
       <c r="C283" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
       <c r="B284" s="1"/>
       <c r="C284" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
       <c r="B285" s="1"/>
       <c r="C285" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
       <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
       <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="288" spans="2:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
       <c r="B288" s="1"/>
       <c r="C288" s="1" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="1"/>
+      <c r="C290" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="1"/>
+      <c r="C291" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" s="1"/>
+      <c r="C302" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/tmp/TABLAS.xlsx
+++ b/tmp/TABLAS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18780" windowHeight="8595"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="277">
   <si>
     <t>PITS</t>
   </si>
@@ -841,16 +841,28 @@
   </si>
   <si>
     <t>Carga Inicial</t>
+  </si>
+  <si>
+    <t>ORD_IND_FAC</t>
+  </si>
+  <si>
+    <t>ORD_FEC_FAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -961,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -972,6 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -981,13 +994,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1066,6 +1086,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1100,6 +1121,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,14 +1297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:J308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165:C180"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1292,7 +1314,7 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1342,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1352,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1362,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1372,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1359,7 +1381,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1390,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1377,7 +1399,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,7 +1408,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +1417,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1426,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>246</v>
       </c>
@@ -1420,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1428,25 +1450,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1492,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
         <v>38</v>
@@ -1482,7 +1504,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -1494,49 +1516,49 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>47</v>
@@ -1545,25 +1567,25 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>245</v>
       </c>
@@ -1579,79 +1601,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>58</v>
@@ -1660,25 +1682,25 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>161</v>
       </c>
@@ -1694,13 +1716,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>159</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -1727,7 +1749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>160</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
@@ -1743,27 +1765,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="B71" s="10" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="B72" s="11"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="B73" s="12"/>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="13"/>
       <c r="C73" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -1772,7 +1794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -1781,7 +1803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -1790,7 +1812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
@@ -1806,7 +1828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>31</v>
       </c>
@@ -1822,7 +1844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +1852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>27</v>
       </c>
@@ -1838,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>27</v>
       </c>
@@ -1846,7 +1868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>259</v>
       </c>
@@ -1862,7 +1884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>27</v>
       </c>
@@ -1870,7 +1892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -1906,7 +1928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -1915,7 +1937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -1924,7 +1946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -1933,7 +1955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>172</v>
       </c>
@@ -1941,7 +1963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>173</v>
       </c>
@@ -1949,7 +1971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -1964,7 +1986,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>174</v>
       </c>
@@ -1981,7 +2003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>83</v>
@@ -1996,7 +2018,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
         <v>84</v>
@@ -2011,7 +2033,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
         <v>24</v>
@@ -2023,7 +2045,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>25</v>
@@ -2035,13 +2057,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>247</v>
       </c>
@@ -2057,55 +2079,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>90</v>
@@ -2114,7 +2136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="8" t="s">
         <v>91</v>
@@ -2129,7 +2151,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
         <v>92</v>
@@ -2144,7 +2166,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
         <v>93</v>
@@ -2156,13 +2178,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
         <v>95</v>
@@ -2171,7 +2193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="2:8">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
         <v>96</v>
@@ -2180,7 +2202,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="8" t="s">
         <v>97</v>
@@ -2189,7 +2211,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
         <v>98</v>
@@ -2198,7 +2220,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
         <v>99</v>
@@ -2207,7 +2229,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
         <v>24</v>
@@ -2219,7 +2241,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
         <v>25</v>
@@ -2231,7 +2253,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
         <v>26</v>
@@ -2240,7 +2262,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>248</v>
       </c>
@@ -2256,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -2266,11 +2288,11 @@
       <c r="C141" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D141" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>164</v>
       </c>
@@ -2278,7 +2300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -2287,7 +2309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>165</v>
       </c>
@@ -2295,7 +2317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>167</v>
       </c>
@@ -2303,7 +2325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>166</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>168</v>
       </c>
@@ -2319,7 +2341,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>169</v>
       </c>
@@ -2327,7 +2349,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>170</v>
       </c>
@@ -2335,7 +2357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,7 +2365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>27</v>
       </c>
@@ -2351,7 +2373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>27</v>
       </c>
@@ -2359,7 +2381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -2367,13 +2389,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>27</v>
       </c>
@@ -2384,7 +2406,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>164</v>
       </c>
@@ -2392,7 +2414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2401,13 +2423,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,7 +2437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>27</v>
       </c>
@@ -2423,7 +2445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B165" s="3" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>272</v>
       </c>
@@ -2447,13 +2469,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -2462,79 +2484,79 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="2:3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="3" t="s">
         <v>249</v>
       </c>
@@ -2550,43 +2572,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="2:3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="2:3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="2:3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="2:3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
         <v>35</v>
@@ -2598,7 +2620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
         <v>114</v>
@@ -2616,7 +2638,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="s">
         <v>115</v>
@@ -2634,7 +2656,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="s">
         <v>116</v>
@@ -2652,7 +2674,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
         <v>117</v>
@@ -2670,7 +2692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>118</v>
@@ -2688,7 +2710,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
         <v>119</v>
@@ -2700,7 +2722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="2" t="s">
         <v>120</v>
@@ -2712,573 +2734,585 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="2:10">
-      <c r="B202" s="1"/>
-      <c r="C202" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10">
+    <row r="202" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="15"/>
+      <c r="C202" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F204" t="s">
         <v>206</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I204" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="2:10">
-      <c r="B204" s="1"/>
-      <c r="C204" s="6" t="s">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="1"/>
+      <c r="C205" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F205" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G205" t="s">
         <v>207</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I205" t="s">
         <v>210</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J205" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="2:10">
-      <c r="B205" s="1"/>
-      <c r="C205" s="1" t="s">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F206" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G206" t="s">
         <v>208</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I206" t="s">
         <v>211</v>
       </c>
-      <c r="J205" t="s">
+      <c r="J206" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="2:10">
-      <c r="B206" s="1"/>
-      <c r="C206" s="6" t="s">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="1"/>
+      <c r="C207" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="207" spans="2:10">
-      <c r="B207" s="1"/>
-      <c r="C207" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10">
-      <c r="B208" s="1"/>
-      <c r="C208" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F208" t="s">
-        <v>214</v>
-      </c>
-      <c r="G208" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7">
+    <row r="208" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="8"/>
+      <c r="C208" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F209" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F210" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7">
+        <v>214</v>
+      </c>
+      <c r="G210" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F211" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
-      <c r="C212" s="2" t="s">
-        <v>132</v>
+      <c r="C212" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F212" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7">
+        <v>131</v>
+      </c>
+      <c r="F213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
-      <c r="C214" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G214" s="7"/>
-    </row>
-    <row r="215" spans="2:7">
+      <c r="C214" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F214" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F215" s="7">
+      <c r="F217" s="7">
         <v>0</v>
       </c>
-      <c r="G215" s="7" t="s">
+      <c r="G217" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="2:7">
-      <c r="F216" s="7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F218" s="7">
         <v>1</v>
       </c>
-      <c r="G216" s="7" t="s">
+      <c r="G218" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
-      <c r="F217" s="7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F219" s="7">
         <v>2</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="G219" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="2:7">
-      <c r="B220" s="3" t="s">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C222" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="2:7">
-      <c r="B221" s="3"/>
-      <c r="C221" s="3" t="s">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:7">
-      <c r="B222" s="1"/>
-      <c r="C222" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7">
-      <c r="B223" s="1"/>
-      <c r="C223" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1"/>
+      <c r="C230" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="2:3">
-      <c r="B237" s="3" t="s">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C239" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="238" spans="2:3">
-      <c r="B238" s="3" t="s">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C240" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="2:3">
-      <c r="B239" s="1"/>
-      <c r="C239" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3">
-      <c r="B240" s="1"/>
-      <c r="C240" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="3" t="s">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="3" t="s">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="1"/>
-      <c r="C256" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="B257" s="1"/>
-      <c r="C257" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="3" t="s">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="269" spans="2:3">
-      <c r="B269" s="3" t="s">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="2:3">
-      <c r="B270" s="1"/>
-      <c r="C270" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3">
-      <c r="B271" s="1"/>
-      <c r="C271" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="2:4">
-      <c r="B281" s="3" t="s">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D283" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="282" spans="2:4">
-      <c r="B282" s="3" t="s">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C284" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D284" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="283" spans="2:4">
-      <c r="B283" s="1"/>
-      <c r="C283" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4">
-      <c r="B284" s="1"/>
-      <c r="C284" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="288" spans="2:4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="289" spans="2:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="290" spans="2:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="291" spans="2:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="1"/>
+      <c r="C292" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="1"/>
+      <c r="C293" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="2:3">
-      <c r="B297" s="3" t="s">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="298" spans="2:3">
-      <c r="B298" s="3" t="s">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C300" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="2:3">
-      <c r="B299" s="1"/>
-      <c r="C299" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3">
-      <c r="B300" s="1"/>
-      <c r="C300" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3287,28 +3321,29 @@
     <mergeCell ref="B71:B73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp/TABLAS.xlsx
+++ b/tmp/TABLAS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="8595"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="302">
   <si>
     <t>PITS</t>
   </si>
@@ -687,12 +687,6 @@
     <t>liquidacion total</t>
   </si>
   <si>
-    <t>no se usa</t>
-  </si>
-  <si>
-    <t>Estado cargo</t>
-  </si>
-  <si>
     <t>codestadodesc es el real</t>
   </si>
   <si>
@@ -750,9 +744,6 @@
     <t>cuando se hacen los pagos a lo proveedores</t>
   </si>
   <si>
-    <t>Son los mismo que los estados del cargo</t>
-  </si>
-  <si>
     <t>DETDESPACHO</t>
   </si>
   <si>
@@ -783,15 +774,6 @@
     <t>ZONAS</t>
   </si>
   <si>
-    <t>ESTADOS</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>TABLA</t>
-  </si>
-  <si>
     <t>TABLA ORIGEN</t>
   </si>
   <si>
@@ -847,13 +829,106 @@
   </si>
   <si>
     <t>ORD_FEC_FAC</t>
+  </si>
+  <si>
+    <t>Por defecto</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Parametro 1</t>
+  </si>
+  <si>
+    <t>Por defecto SERIAL = 2</t>
+  </si>
+  <si>
+    <t>CORRELATIVO</t>
+  </si>
+  <si>
+    <t>Defecto</t>
+  </si>
+  <si>
+    <t>Seria = 38</t>
+  </si>
+  <si>
+    <t>Parametro = 6</t>
+  </si>
+  <si>
+    <t>Cargar en el XML de Contantes</t>
+  </si>
+  <si>
+    <t>Parametro = 7</t>
+  </si>
+  <si>
+    <t>Cargar en el XML de Contantes el valor por defecto</t>
+  </si>
+  <si>
+    <t>Fecha de descargo</t>
+  </si>
+  <si>
+    <t>Fecha de recepcion</t>
+  </si>
+  <si>
+    <t>FEC_DESCARGO</t>
+  </si>
+  <si>
+    <t>FEC_RECEPCION</t>
+  </si>
+  <si>
+    <t>DESTINATARIO</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>NUEVADIRECCION</t>
+  </si>
+  <si>
+    <t>NUEVAREFERENCIA</t>
+  </si>
+  <si>
+    <t>CODESTADO</t>
+  </si>
+  <si>
+    <t>Serial = 19</t>
+  </si>
+  <si>
+    <t>Parametro = 4</t>
+  </si>
+  <si>
+    <t>Serial = 85</t>
+  </si>
+  <si>
+    <t>Parametro = 19</t>
+  </si>
+  <si>
+    <t>DETORDOENES</t>
+  </si>
+  <si>
+    <t>FECSALIDA</t>
+  </si>
+  <si>
+    <t>FECRETORNO</t>
+  </si>
+  <si>
+    <t>FECHACIERRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No lo usan, se pone valor por defecto </t>
+  </si>
+  <si>
+    <t>T_PARAMTRO</t>
+  </si>
+  <si>
+    <t>Parametro = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1060,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -994,9 +1072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,7 +1161,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1121,7 +1195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1297,24 +1370,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1322,9 +1395,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -1333,16 +1406,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1428,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1360,9 +1436,14 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1370,9 +1451,12 @@
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D9" t="s">
+        <v>271</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1465,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1474,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1399,7 +1483,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1492,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1501,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1426,7 +1510,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1434,15 +1518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="B19" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1450,142 +1534,187 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:6">
+      <c r="B21" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D26" t="s">
+        <v>277</v>
+      </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="D28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="D29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:6">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:6">
+      <c r="B32" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1593,114 +1722,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="B43" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="E48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="B49" s="1"/>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="D49" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+    <row r="53" spans="1:5">
+      <c r="B53" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:5">
+      <c r="B54" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" s="1"/>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>300</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+    <row r="58" spans="1:5">
+      <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+    <row r="59" spans="1:5">
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="B63" s="3" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="B64" s="3" t="s">
         <v>161</v>
       </c>
@@ -1716,13 +1896,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>159</v>
       </c>
@@ -1731,7 +1911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -1740,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -1749,7 +1929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="B69" s="1" t="s">
         <v>160</v>
       </c>
@@ -1757,7 +1937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
@@ -1765,27 +1945,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="1:3">
+      <c r="B71" s="14" t="s">
         <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
+    <row r="72" spans="1:3">
+      <c r="B72" s="15"/>
       <c r="C72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="13"/>
+    <row r="73" spans="1:3">
+      <c r="B73" s="16"/>
       <c r="C73" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -1794,7 +1974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -1803,7 +1983,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
@@ -1828,7 +2008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
@@ -1836,7 +2016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="B80" s="1" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +2024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="B81" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +2032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="B82" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,7 +2040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="B83" s="1" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +2048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -1876,15 +2056,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="B90" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="B91" s="1" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +2072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +2081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +2099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -1928,7 +2108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -1937,7 +2117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -1946,7 +2126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -1955,7 +2135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="B99" s="1" t="s">
         <v>172</v>
       </c>
@@ -1963,7 +2143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="B100" s="1" t="s">
         <v>173</v>
       </c>
@@ -1971,7 +2151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -1986,7 +2166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="B102" s="1" t="s">
         <v>174</v>
       </c>
@@ -2003,7 +2183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>83</v>
@@ -2018,7 +2198,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
         <v>84</v>
@@ -2033,7 +2213,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
         <v>24</v>
@@ -2045,7 +2225,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
         <v>25</v>
@@ -2057,13 +2237,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="B112" s="3" t="s">
         <v>0</v>
       </c>
@@ -2071,198 +2251,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8">
       <c r="B113" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8">
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8">
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8">
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8">
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G122" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
       <c r="B123" s="1"/>
       <c r="C123" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>199</v>
       </c>
       <c r="H123" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H124" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H125" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8">
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G127" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G128" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" s="1"/>
       <c r="C129" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G129" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G130" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G131" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I132" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G133" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I133" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G134" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" s="3" t="s">
         <v>0</v>
       </c>
@@ -2270,15 +2450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="B140" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -2289,10 +2469,10 @@
         <v>100</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" s="1" t="s">
         <v>164</v>
       </c>
@@ -2300,7 +2480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -2309,7 +2489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="B144" s="1" t="s">
         <v>165</v>
       </c>
@@ -2317,7 +2497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="B145" s="1" t="s">
         <v>167</v>
       </c>
@@ -2325,7 +2505,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="B146" s="1" t="s">
         <v>166</v>
       </c>
@@ -2333,7 +2513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="B147" s="1" t="s">
         <v>168</v>
       </c>
@@ -2341,7 +2521,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="B148" s="1" t="s">
         <v>169</v>
       </c>
@@ -2349,7 +2529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="B149" s="1" t="s">
         <v>170</v>
       </c>
@@ -2357,7 +2537,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="B150" s="1" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="B151" s="1" t="s">
         <v>27</v>
       </c>
@@ -2373,7 +2553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="B152" s="1" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="B155" s="3" t="s">
         <v>0</v>
       </c>
@@ -2389,13 +2569,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="B157" s="1" t="s">
         <v>27</v>
       </c>
@@ -2403,10 +2583,10 @@
         <v>74</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="B158" s="1" t="s">
         <v>164</v>
       </c>
@@ -2414,7 +2594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2423,13 +2603,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="B162" s="1" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="B163" s="1" t="s">
         <v>27</v>
       </c>
@@ -2453,7 +2633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="B165" s="3" t="s">
         <v>0</v>
       </c>
@@ -2461,21 +2641,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="B166" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -2484,79 +2664,79 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="B175" s="1"/>
       <c r="C175" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="B176" s="1"/>
       <c r="C176" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3">
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3">
       <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3">
       <c r="B185" s="3" t="s">
         <v>0</v>
       </c>
@@ -2564,51 +2744,51 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3">
       <c r="B186" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3">
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3">
       <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3">
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3">
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3">
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3">
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:10">
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
         <v>35</v>
@@ -2620,7 +2800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:10">
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
         <v>114</v>
@@ -2638,7 +2818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10">
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="s">
         <v>115</v>
@@ -2656,7 +2836,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10">
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="s">
         <v>116</v>
@@ -2674,7 +2854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10">
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
         <v>117</v>
@@ -2692,7 +2872,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10">
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
         <v>118</v>
@@ -2710,7 +2890,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10">
       <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
         <v>119</v>
@@ -2722,7 +2902,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:10">
       <c r="B200" s="1"/>
       <c r="C200" s="2" t="s">
         <v>120</v>
@@ -2734,25 +2914,25 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:10">
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="15"/>
-      <c r="C202" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:10" s="11" customFormat="1">
+      <c r="B202" s="12"/>
+      <c r="C202" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10">
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10">
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
         <v>123</v>
@@ -2764,7 +2944,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10">
       <c r="B205" s="1"/>
       <c r="C205" s="6" t="s">
         <v>124</v>
@@ -2782,7 +2962,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10">
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
         <v>125</v>
@@ -2800,25 +2980,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10">
       <c r="B207" s="1"/>
       <c r="C207" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" s="13" customFormat="1">
       <c r="B208" s="8"/>
       <c r="C208" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7">
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
         <v>128</v>
@@ -2830,7 +3010,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7">
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
         <v>129</v>
@@ -2839,7 +3019,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7">
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
         <v>130</v>
@@ -2848,7 +3028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7">
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
         <v>131</v>
@@ -2857,7 +3037,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7">
       <c r="B214" s="1"/>
       <c r="C214" s="2" t="s">
         <v>132</v>
@@ -2866,13 +3046,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7">
       <c r="B215" s="1"/>
       <c r="C215" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7">
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
         <v>25</v>
@@ -2882,7 +3062,7 @@
       </c>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7">
       <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
         <v>26</v>
@@ -2894,7 +3074,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7">
       <c r="F218" s="7">
         <v>1</v>
       </c>
@@ -2902,7 +3082,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7">
       <c r="F219" s="7">
         <v>2</v>
       </c>
@@ -2910,7 +3090,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7">
       <c r="B222" s="3" t="s">
         <v>0</v>
       </c>
@@ -2918,61 +3098,61 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7">
       <c r="B223" s="3"/>
       <c r="C223" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7">
       <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3">
       <c r="B225" s="1"/>
       <c r="C225" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3">
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3">
       <c r="B227" s="1"/>
       <c r="C227" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3">
       <c r="B228" s="1"/>
       <c r="C228" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3">
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3">
       <c r="B230" s="1"/>
       <c r="C230" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3">
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3">
       <c r="B239" s="3" t="s">
         <v>0</v>
       </c>
@@ -2980,203 +3160,215 @@
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3">
       <c r="B240" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5">
       <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5">
       <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5">
       <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5">
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5">
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5">
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5">
       <c r="B249" s="1"/>
       <c r="C249" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5">
       <c r="B250" s="1"/>
       <c r="C250" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5">
       <c r="B256" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
       <c r="B258" s="1"/>
       <c r="C258" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5">
       <c r="B259" s="1"/>
       <c r="C259" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5">
       <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:5">
       <c r="B261" s="1"/>
       <c r="C261" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:5">
       <c r="B262" s="1"/>
       <c r="C262" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5">
       <c r="B263" s="1"/>
       <c r="C263" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:5">
       <c r="B264" s="1"/>
       <c r="C264" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5">
       <c r="B265" s="1"/>
       <c r="C265" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5">
       <c r="B270" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
       <c r="B271" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5">
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5">
       <c r="B274" s="1"/>
       <c r="C274" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5">
       <c r="B275" s="1"/>
       <c r="C275" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5">
       <c r="B276" s="1"/>
       <c r="C276" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5">
       <c r="B277" s="1"/>
       <c r="C277" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5">
       <c r="B278" s="1"/>
       <c r="C278" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5">
       <c r="B279" s="1"/>
       <c r="C279" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:5">
       <c r="B283" s="3" t="s">
         <v>0</v>
       </c>
@@ -3184,75 +3376,81 @@
         <v>171</v>
       </c>
       <c r="D283" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E283" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
       <c r="B284" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D284" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
       <c r="B285" s="1"/>
       <c r="C285" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:5">
       <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5">
       <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5">
       <c r="B288" s="1"/>
       <c r="C288" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4">
       <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4">
       <c r="B290" s="1"/>
       <c r="C290" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4">
       <c r="B291" s="1"/>
       <c r="C291" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4">
       <c r="B292" s="1"/>
       <c r="C292" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4">
       <c r="B293" s="1"/>
       <c r="C293" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4">
       <c r="B299" s="3" t="s">
         <v>0</v>
       </c>
@@ -3260,57 +3458,63 @@
         <v>171</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4">
       <c r="B300" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
       <c r="B301" s="1"/>
       <c r="C301" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
       <c r="B302" s="1"/>
       <c r="C302" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4">
       <c r="B303" s="1"/>
       <c r="C303" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4">
       <c r="B304" s="1"/>
       <c r="C304" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3">
       <c r="B305" s="1"/>
       <c r="C305" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3">
       <c r="B306" s="1"/>
       <c r="C306" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3">
       <c r="B307" s="1"/>
       <c r="C307" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3">
       <c r="B308" s="1"/>
       <c r="C308" s="1" t="s">
         <v>26</v>
@@ -3326,24 +3530,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp/TABLAS.xlsx
+++ b/tmp/TABLAS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
   <si>
     <t>PITS</t>
   </si>
@@ -916,9 +916,6 @@
   </si>
   <si>
     <t xml:space="preserve">No lo usan, se pone valor por defecto </t>
-  </si>
-  <si>
-    <t>T_PARAMTRO</t>
   </si>
   <si>
     <t>Parametro = 2</t>
@@ -1373,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1663,7 +1660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:5">
       <c r="B33" s="1" t="s">
         <v>288</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="1:5">
       <c r="B34" s="1" t="s">
         <v>289</v>
       </c>
@@ -1679,7 +1676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="1:5">
       <c r="B35" s="1" t="s">
         <v>290</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="1:5">
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="1:5">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="1:5">
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="1:5">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="1:5">
       <c r="B43" s="3" t="s">
         <v>242</v>
       </c>
@@ -1730,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="1:5">
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="1:5">
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="1:5">
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="1:5">
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1762,7 +1759,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>50</v>
@@ -1775,6 +1775,9 @@
       </c>
     </row>
     <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1820,6 +1823,9 @@
       </c>
     </row>
     <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>244</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>297</v>
       </c>
@@ -1828,6 +1834,9 @@
       </c>
     </row>
     <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>244</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>298</v>
       </c>
@@ -1846,14 +1855,14 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1896,40 +1905,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="B69" s="1" t="s">
         <v>160</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="B71" s="14" t="s">
         <v>161</v>
       </c>
@@ -1953,37 +1965,37 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="B72" s="15"/>
       <c r="C72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="B73" s="16"/>
       <c r="C73" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="B78" s="1" t="s">
         <v>162</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="B79" s="1" t="s">
         <v>163</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="B80" s="1" t="s">
         <v>31</v>
       </c>

--- a/tmp/TABLAS.xlsx
+++ b/tmp/TABLAS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="8595"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="334">
   <si>
     <t>PITS</t>
   </si>
@@ -495,9 +495,6 @@
     <t>ZON_COD_POSTAL</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>RUC</t>
   </si>
   <si>
@@ -774,9 +771,6 @@
     <t>ZONAS</t>
   </si>
   <si>
-    <t>TABLA ORIGEN</t>
-  </si>
-  <si>
     <t>T_COTIZACIONES</t>
   </si>
   <si>
@@ -919,13 +913,118 @@
   </si>
   <si>
     <t>Parametro = 2</t>
+  </si>
+  <si>
+    <t>PENDIENTES</t>
+  </si>
+  <si>
+    <t>NOTRABAJADOS</t>
+  </si>
+  <si>
+    <t>MOTIVOS</t>
+  </si>
+  <si>
+    <t>ENTREGADOS</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>CODZONA</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>CODPOSTAL</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
+  </si>
+  <si>
+    <t>CODSEDE</t>
+  </si>
+  <si>
+    <t>NOMSEDE</t>
+  </si>
+  <si>
+    <t>CODPRODUCTO</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRECIO??</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>No deberia ser ARE_CLI_ID???</t>
+  </si>
+  <si>
+    <t>SERIE</t>
+  </si>
+  <si>
+    <t>ORDEN</t>
+  </si>
+  <si>
+    <t>cod. Tipo = 34 ????</t>
+  </si>
+  <si>
+    <t>FECHAINICIO</t>
+  </si>
+  <si>
+    <t>FECHAVENCIMIENTO</t>
+  </si>
+  <si>
+    <t>Cod. Tipo = 23</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>DESCUENTO</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>FECHADEVOLUCION</t>
+  </si>
+  <si>
+    <t>TABLA ORIGEN (PK)</t>
+  </si>
+  <si>
+    <t>SERIEGUIA</t>
+  </si>
+  <si>
+    <t>NROGUIA</t>
+  </si>
+  <si>
+    <t>Cod tipo = 21</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>FECHARETORNO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,8 +1038,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,6 +1075,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1069,6 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,16 +1484,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:J308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1394,7 +1508,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -1411,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1434,10 +1548,10 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1449,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1517,7 +1631,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
@@ -1533,7 +1647,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -1566,7 +1680,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1578,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1590,13 +1704,13 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" t="s">
         <v>277</v>
-      </c>
-      <c r="E26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F26" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1608,37 +1722,37 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -1654,7 +1768,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -1662,7 +1776,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="B33" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
@@ -1670,7 +1784,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>46</v>
@@ -1678,13 +1792,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1721,7 +1835,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -1768,10 +1882,10 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1783,18 +1897,18 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
@@ -1802,10 +1916,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>53</v>
@@ -1813,10 +1927,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>54</v>
@@ -1824,10 +1938,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>55</v>
@@ -1835,10 +1949,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>56</v>
@@ -1850,7 +1964,7 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1862,7 +1976,7 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1899,7 +2013,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="B64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -1911,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1943,7 +2057,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>62</v>
@@ -1951,7 +2065,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>63</v>
@@ -1959,7 +2073,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="B71" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>64</v>
@@ -2014,7 +2128,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="B78" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>70</v>
@@ -2022,7 +2136,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>71</v>
@@ -2070,7 +2184,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="B90" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>6</v>
@@ -2113,7 +2227,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
@@ -2122,7 +2236,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
@@ -2131,7 +2245,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
@@ -2140,7 +2254,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
@@ -2149,7 +2263,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="B99" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>79</v>
@@ -2157,7 +2271,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="B100" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>80</v>
@@ -2165,7 +2279,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
@@ -2175,12 +2289,12 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>82</v>
@@ -2189,10 +2303,10 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
+        <v>176</v>
+      </c>
+      <c r="J102" t="s">
         <v>177</v>
-      </c>
-      <c r="J102" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -2200,14 +2314,17 @@
       <c r="C103" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D103" t="s">
+        <v>297</v>
+      </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103" t="s">
+        <v>178</v>
+      </c>
+      <c r="J103" t="s">
         <v>179</v>
-      </c>
-      <c r="J103" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -2215,18 +2332,23 @@
       <c r="C104" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D104" t="s">
+        <v>297</v>
+      </c>
       <c r="H104">
         <v>4</v>
       </c>
       <c r="I104" t="s">
+        <v>180</v>
+      </c>
+      <c r="J104" t="s">
         <v>181</v>
       </c>
-      <c r="J104" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>24</v>
       </c>
@@ -2234,11 +2356,13 @@
         <v>5</v>
       </c>
       <c r="I105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="B106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>25</v>
       </c>
@@ -2246,11 +2370,13 @@
         <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,135 +2389,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="1:8">
       <c r="B113" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="1:8">
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="115" spans="2:8">
+      <c r="D114" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="1"/>
+    <row r="116" spans="1:8">
+      <c r="B116" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="1"/>
+    <row r="117" spans="1:8">
+      <c r="B117" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="1:8">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="122" spans="2:8">
+      <c r="D121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="D122" t="s">
+        <v>331</v>
+      </c>
       <c r="G122" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="B123" s="1"/>
       <c r="C123" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H123" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D124" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H124" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H125" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="1"/>
+    <row r="127" spans="1:8">
+      <c r="B127" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G127" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="1"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -2399,59 +2560,73 @@
       <c r="C129" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="D129" t="s">
+        <v>229</v>
+      </c>
       <c r="G129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="B130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="B132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="B133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="B134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -2464,7 +2639,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="B140" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
@@ -2481,12 +2656,12 @@
         <v>100</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="B142" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>101</v>
@@ -2494,7 +2669,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
@@ -2503,7 +2678,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="B144" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>103</v>
@@ -2511,7 +2686,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="B145" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>104</v>
@@ -2519,7 +2694,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="B146" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>105</v>
@@ -2527,7 +2702,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="B147" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>106</v>
@@ -2535,7 +2710,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="B148" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>107</v>
@@ -2543,7 +2718,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="B149" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>108</v>
@@ -2578,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2595,12 +2770,12 @@
         <v>74</v>
       </c>
       <c r="D157" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>100</v>
@@ -2608,7 +2783,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
@@ -2616,12 +2791,15 @@
       </c>
     </row>
     <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="B162" s="1" t="s">
         <v>27</v>
       </c>
@@ -2637,7 +2815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="B163" s="1" t="s">
         <v>27</v>
       </c>
@@ -2645,29 +2823,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="B165" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="B166" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="D167" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -2676,406 +2857,515 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="B169" s="1"/>
+    <row r="169" spans="1:4">
+      <c r="B169" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C169" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="B172" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="B171" s="1"/>
-      <c r="C171" s="1" t="s">
+    <row r="173" spans="1:4">
+      <c r="B173" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="B172" s="1"/>
-      <c r="C172" s="1" t="s">
+    <row r="174" spans="1:4">
+      <c r="B174" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="B173" s="1"/>
-      <c r="C173" s="1" t="s">
+    <row r="175" spans="1:4">
+      <c r="B175" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="B174" s="1"/>
-      <c r="C174" s="1" t="s">
+    <row r="176" spans="1:4">
+      <c r="B176" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="B175" s="1"/>
-      <c r="C175" s="1" t="s">
+    <row r="177" spans="1:4">
+      <c r="B177" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="B176" s="1"/>
-      <c r="C176" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="1"/>
-      <c r="C177" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="1"/>
+    <row r="178" spans="1:4">
+      <c r="B178" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="1"/>
+    <row r="179" spans="1:4">
+      <c r="B179" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="1"/>
+    <row r="180" spans="1:4">
+      <c r="B180" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
+    <row r="185" spans="1:4">
       <c r="B185" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="B186" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
+    <row r="187" spans="1:4">
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="188" spans="2:3">
+      <c r="D187" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="2:3">
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>2</v>
+      </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="190" spans="2:3">
+      <c r="D189" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="2:3">
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I193" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I196">
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10">
-      <c r="B197" s="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="B197" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I197">
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10">
-      <c r="B198" s="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="B198" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C198" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I198">
         <v>5</v>
       </c>
       <c r="J198" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10">
-      <c r="B199" s="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="B199" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C199" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G199" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
       <c r="B200" s="1"/>
       <c r="C200" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G200" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10">
-      <c r="B201" s="1"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="B201" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C201" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="2:10" s="11" customFormat="1">
+    <row r="202" spans="1:10" s="11" customFormat="1">
+      <c r="A202" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="B202" s="12"/>
       <c r="C202" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10">
-      <c r="B203" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="B203" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="C203" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="204" spans="2:10">
-      <c r="B204" s="1"/>
+    <row r="204" spans="1:10">
+      <c r="B204" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C204" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I204" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10">
-      <c r="B205" s="1"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="B205" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C205" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J205" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10">
-      <c r="B206" s="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="B206" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J206" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10">
-      <c r="B207" s="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="B207" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C207" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="2:10" s="13" customFormat="1">
-      <c r="B208" s="8"/>
+    <row r="208" spans="1:10" s="13" customFormat="1">
+      <c r="B208" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="C208" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7">
-      <c r="B209" s="1"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="B209" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C209" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="210" spans="2:7">
-      <c r="B210" s="1"/>
+    <row r="210" spans="1:7">
+      <c r="B210" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C210" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G210" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7">
-      <c r="B211" s="1"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="B211" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C211" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F211" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7">
-      <c r="B212" s="1"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="B212" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C212" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F212" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7">
-      <c r="B213" s="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="B213" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C213" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F213" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
       <c r="B214" s="1"/>
       <c r="C214" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="D214" t="s">
+        <v>320</v>
+      </c>
       <c r="F214" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7">
-      <c r="B215" s="1"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="B215" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="2:7">
-      <c r="B216" s="1"/>
+    <row r="216" spans="1:7">
+      <c r="B216" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C216" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="2:7">
-      <c r="B217" s="1"/>
+    <row r="217" spans="1:7">
+      <c r="B217" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C217" s="1" t="s">
         <v>26</v>
       </c>
@@ -3083,40 +3373,40 @@
         <v>0</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="F218" s="7">
         <v>1</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" spans="2:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="F219" s="7">
         <v>2</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="B222" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="B223" s="3"/>
       <c r="C223" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="1:7">
       <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
         <v>133</v>
@@ -3169,91 +3459,115 @@
         <v>0</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="2:5">
+    <row r="241" spans="1:5">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="242" spans="2:5">
+      <c r="D241" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="243" spans="2:5">
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="244" spans="2:5">
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="245" spans="2:5">
-      <c r="B245" s="1"/>
+    <row r="245" spans="1:5">
+      <c r="B245" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C245" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="246" spans="2:5">
-      <c r="B246" s="1"/>
+    <row r="246" spans="1:5">
+      <c r="B246" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="C246" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="247" spans="2:5">
-      <c r="B247" s="1"/>
+    <row r="247" spans="1:5">
+      <c r="B247" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C247" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="248" spans="2:5">
-      <c r="B248" s="1"/>
+    <row r="248" spans="1:5">
+      <c r="B248" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C248" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="2:5">
-      <c r="B249" s="1"/>
+    <row r="249" spans="1:5">
+      <c r="B249" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C249" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="2:5">
-      <c r="B250" s="1"/>
+    <row r="250" spans="1:5">
+      <c r="B250" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C250" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="2:5">
+    <row r="256" spans="1:5">
       <c r="B256" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E256" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="B257" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>13</v>
@@ -3262,226 +3576,288 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:5">
+    <row r="258" spans="1:5">
       <c r="B258" s="1"/>
       <c r="C258" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="259" spans="2:5">
-      <c r="B259" s="1"/>
+      <c r="D258" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="B259" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C259" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="260" spans="2:5">
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="2:5">
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
-      <c r="B262" s="1"/>
+    <row r="262" spans="1:5">
+      <c r="B262" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="263" spans="2:5">
-      <c r="B263" s="1"/>
+    <row r="263" spans="1:5">
+      <c r="B263" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C263" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="2:5">
-      <c r="B264" s="1"/>
+    <row r="264" spans="1:5">
+      <c r="B264" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C264" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="2:5">
-      <c r="B265" s="1"/>
+    <row r="265" spans="1:5">
+      <c r="B265" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C265" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="2:5">
+    <row r="270" spans="1:5">
       <c r="B270" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E270" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="B271" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5">
+    </row>
+    <row r="272" spans="1:5">
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="273" spans="2:5">
+      <c r="D272" t="s">
+        <v>270</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="274" spans="2:5">
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="275" spans="2:5">
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="276" spans="2:5">
-      <c r="B276" s="1"/>
+    <row r="276" spans="1:5">
+      <c r="B276" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C276" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="277" spans="2:5">
-      <c r="B277" s="1"/>
+    <row r="277" spans="1:5">
+      <c r="B277" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C277" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="2:5">
-      <c r="B278" s="1"/>
+    <row r="278" spans="1:5">
+      <c r="B278" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C278" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="2:5">
-      <c r="B279" s="1"/>
+    <row r="279" spans="1:5">
+      <c r="B279" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C279" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="2:5">
+    <row r="283" spans="1:5">
       <c r="B283" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D283" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E283" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="B284" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D284" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:5">
+    <row r="285" spans="1:5">
       <c r="B285" s="1"/>
       <c r="C285" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="2:5">
-      <c r="B286" s="1"/>
+      <c r="D285" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="B286" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C286" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="287" spans="2:5">
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>11</v>
+      </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="288" spans="2:5">
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="289" spans="2:4">
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="2:4">
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="291" spans="2:4">
-      <c r="B291" s="1"/>
+    <row r="291" spans="1:5">
+      <c r="B291" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C291" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="2:4">
-      <c r="B292" s="1"/>
+    <row r="292" spans="1:5">
+      <c r="B292" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C292" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="2:4">
-      <c r="B293" s="1"/>
+    <row r="293" spans="1:5">
+      <c r="B293" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C293" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="2:4">
+    <row r="299" spans="1:5">
       <c r="B299" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="B300" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D300" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="B301" s="1"/>
       <c r="C301" s="1" t="s">
         <v>36</v>
@@ -3489,45 +3865,63 @@
       <c r="D301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="2:4">
-      <c r="B302" s="1"/>
+      <c r="E301" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="B302" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C302" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="2:4">
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>15</v>
+      </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="2:4">
-      <c r="B304" s="1"/>
+    <row r="304" spans="1:5">
+      <c r="B304" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C304" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="1"/>
+      <c r="B305" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="1"/>
+      <c r="B306" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C306" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="1"/>
+      <c r="B307" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C307" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="1"/>
+      <c r="B308" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C308" s="1" t="s">
         <v>26</v>
       </c>
